--- a/win_temp/1_2025ECDPConnectathon_Metadata_DPIA.xlsx
+++ b/win_temp/1_2025ECDPConnectathon_Metadata_DPIA.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Github\Hl7_O33\win_temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ACF607-EE9D-431C-904C-6AB787C24CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="14620" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
   <si>
     <t>Participant</t>
   </si>
@@ -343,86 +352,110 @@
     <t xml:space="preserve">Thyroid FNA Papillary Thyroid Carcinoma ThinPrep HE </t>
   </si>
   <si>
+    <t>HOL202505</t>
+  </si>
+  <si>
+    <t>25SP_Hologic^DPIA_Path1</t>
+  </si>
+  <si>
+    <t>EH Surg 11-0027</t>
+  </si>
+  <si>
+    <t>EH Surg 11-0027-EE</t>
+  </si>
+  <si>
+    <t>SCT:54268001 "Pelvic lymph node"</t>
+  </si>
+  <si>
+    <t>Pelvic Lymph Node Endometrioid Adenocarcinoma FFPE HE</t>
+  </si>
+  <si>
+    <t>HOL202506</t>
+  </si>
+  <si>
+    <t>25SP_Hologic^DPIA_Path2</t>
+  </si>
+  <si>
+    <t>EH Surg 11-0017</t>
+  </si>
+  <si>
+    <t>EH Surg 11-0017-A2</t>
+  </si>
+  <si>
+    <t>SCT:38848004 "Duodenum"</t>
+  </si>
+  <si>
+    <t>Duodenum FFPE HE</t>
+  </si>
+  <si>
     <t>EH Surg 11-0027-EE-H&amp;E</t>
-  </si>
-  <si>
-    <t>HOL202505</t>
-  </si>
-  <si>
-    <t>25SP_Hologic^DPIA_Path1</t>
-  </si>
-  <si>
-    <t>EH Surg 11-0027</t>
-  </si>
-  <si>
-    <t>EH Surg 11-0027-EE</t>
-  </si>
-  <si>
-    <t>SCT:54268001 "Pelvic lymph node"</t>
-  </si>
-  <si>
-    <t>Pelvic Lymph Node Endometrioid Adenocarcinoma FFPE HE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EH Surg 11-0017-A2-H&amp;E</t>
-  </si>
-  <si>
-    <t>HOL202506</t>
-  </si>
-  <si>
-    <t>25SP_Hologic^DPIA_Path2</t>
-  </si>
-  <si>
-    <t>EH Surg 11-0017</t>
-  </si>
-  <si>
-    <t>EH Surg 11-0017-A2</t>
-  </si>
-  <si>
-    <t>SCT:38848004 "Duodenum"</t>
-  </si>
-  <si>
-    <t>Duodenum FFPE HE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hologic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,61 +463,67 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -674,43 +713,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.5"/>
-    <col customWidth="1" min="2" max="2" width="32.88"/>
-    <col customWidth="1" min="3" max="3" width="22.25"/>
-    <col customWidth="1" min="4" max="4" width="28.13"/>
-    <col customWidth="1" min="5" max="5" width="25.75"/>
-    <col customWidth="1" min="6" max="6" width="20.75"/>
-    <col customWidth="1" min="7" max="7" width="34.38"/>
-    <col customWidth="1" min="8" max="8" width="41.25"/>
-    <col customWidth="1" min="9" max="9" width="38.5"/>
-    <col customWidth="1" min="10" max="10" width="27.63"/>
-    <col customWidth="1" min="11" max="11" width="38.75"/>
-    <col customWidth="1" min="12" max="12" width="27.13"/>
-    <col customWidth="1" min="13" max="13" width="44.75"/>
-    <col customWidth="1" min="14" max="14" width="35.38"/>
-    <col customWidth="1" min="15" max="15" width="35.75"/>
-    <col customWidth="1" min="16" max="16" width="34.38"/>
-    <col customWidth="1" min="17" max="17" width="37.88"/>
-    <col customWidth="1" min="18" max="19" width="35.25"/>
-    <col customWidth="1" min="20" max="20" width="46.25"/>
-    <col customWidth="1" min="21" max="21" width="40.88"/>
-    <col customWidth="1" min="22" max="22" width="46.0"/>
+    <col min="1" max="1" width="10.4609375" customWidth="1"/>
+    <col min="2" max="2" width="32.84375" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" customWidth="1"/>
+    <col min="4" max="4" width="28.15234375" customWidth="1"/>
+    <col min="5" max="5" width="25.765625" customWidth="1"/>
+    <col min="6" max="6" width="20.765625" customWidth="1"/>
+    <col min="7" max="7" width="34.3828125" customWidth="1"/>
+    <col min="8" max="8" width="41.23046875" customWidth="1"/>
+    <col min="9" max="9" width="38.4609375" customWidth="1"/>
+    <col min="10" max="10" width="27.61328125" customWidth="1"/>
+    <col min="11" max="11" width="38.765625" customWidth="1"/>
+    <col min="12" max="12" width="27.15234375" customWidth="1"/>
+    <col min="13" max="13" width="44.765625" customWidth="1"/>
+    <col min="14" max="14" width="35.3828125" customWidth="1"/>
+    <col min="15" max="15" width="35.765625" customWidth="1"/>
+    <col min="16" max="16" width="34.3828125" customWidth="1"/>
+    <col min="17" max="17" width="37.84375" customWidth="1"/>
+    <col min="18" max="19" width="35.23046875" customWidth="1"/>
+    <col min="20" max="20" width="46.23046875" customWidth="1"/>
+    <col min="21" max="21" width="40.84375" customWidth="1"/>
+    <col min="22" max="22" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +832,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -796,28 +840,28 @@
         <v>22</v>
       </c>
       <c r="C2" s="4">
-        <v>1.23123127E8</v>
+        <v>123123127</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4">
-        <v>1.9700101E7</v>
+        <v>19700101</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="4">
-        <v>17621.0</v>
+        <v>17621</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="6">
-        <v>2.02401011035E11</v>
+        <v>202401011035</v>
       </c>
       <c r="J2" s="4">
-        <v>17621.0</v>
+        <v>17621</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>26</v>
@@ -856,7 +900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -870,7 +914,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="4">
-        <v>1.9830101E7</v>
+        <v>19830101</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>42</v>
@@ -882,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="4">
-        <v>2.02412031011E11</v>
+        <v>202412031011</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>44</v>
@@ -924,7 +968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -938,7 +982,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="9">
-        <v>1.9830202E7</v>
+        <v>19830202</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
@@ -950,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="4">
-        <v>2.02412031011E11</v>
+        <v>202412031011</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>51</v>
@@ -1002,7 +1046,7 @@
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1016,7 +1060,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="9">
-        <v>1.9830303E7</v>
+        <v>19830303</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
@@ -1028,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="4">
-        <v>2.02412031011E11</v>
+        <v>202412031011</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>58</v>
@@ -1080,7 +1124,7 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1138,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="9">
-        <v>1.9830404E7</v>
+        <v>19830404</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>42</v>
@@ -1106,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="4">
-        <v>2.02412031011E11</v>
+        <v>202412031011</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>63</v>
@@ -1158,7 +1202,7 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1172,7 +1216,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="9">
-        <v>1.9830505E7</v>
+        <v>19830505</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
@@ -1184,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="4">
-        <v>2.02412031011E11</v>
+        <v>202412031011</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>70</v>
@@ -1236,7 +1280,7 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="9">
-        <v>1.9830606E7</v>
+        <v>19830606</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
@@ -1262,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="4">
-        <v>2.02412031011E11</v>
+        <v>202412031011</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>77</v>
@@ -1314,12 +1358,12 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="4">
-        <v>4.0812529999064E13</v>
+      <c r="B9" s="11">
+        <v>40812529999064</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>81</v>
@@ -1328,22 +1372,22 @@
         <v>82</v>
       </c>
       <c r="E9" s="4">
-        <v>1.9950101E7</v>
+        <v>19950101</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="4">
-        <v>4.0812529999064E13</v>
+        <v>40812529999064</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="4">
-        <v>2.02501011011E11</v>
+        <v>202501011011</v>
       </c>
       <c r="J9" s="4">
-        <v>4.0812529999064E13</v>
+        <v>40812529999064</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>26</v>
@@ -1382,12 +1426,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="4">
-        <v>1.9238769999177E13</v>
+      <c r="B10" s="11">
+        <v>19238769999177</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>88</v>
@@ -1396,22 +1440,22 @@
         <v>89</v>
       </c>
       <c r="E10" s="4">
-        <v>1.9980101E7</v>
+        <v>19980101</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="4">
-        <v>1.9238769999177E13</v>
+        <v>19238769999177</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="4">
-        <v>2.02501011011E11</v>
+        <v>202501011011</v>
       </c>
       <c r="J10" s="4">
-        <v>1.9238769999177E13</v>
+        <v>19238769999177</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>26</v>
@@ -1450,12 +1494,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="4">
-        <v>2.0739989999062E13</v>
+      <c r="B11" s="11">
+        <v>20739989999062</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>91</v>
@@ -1464,22 +1508,22 @@
         <v>92</v>
       </c>
       <c r="E11" s="4">
-        <v>1.9830101E7</v>
+        <v>19830101</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="4">
-        <v>2.0739989999062E13</v>
+        <v>20739989999062</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="4">
-        <v>2.02501011011E11</v>
+        <v>202501011011</v>
       </c>
       <c r="J11" s="4">
-        <v>2.0739989999062E13</v>
+        <v>20739989999062</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>26</v>
@@ -1518,12 +1562,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="4">
-        <v>2.2007359999117E13</v>
+      <c r="B12" s="11">
+        <v>22007359999117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>94</v>
@@ -1532,22 +1576,22 @@
         <v>95</v>
       </c>
       <c r="E12" s="4">
-        <v>1.9790101E7</v>
+        <v>19790101</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4">
-        <v>2.2007359999117E13</v>
+        <v>22007359999117</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="4">
-        <v>2.02501011011E11</v>
+        <v>202501011011</v>
       </c>
       <c r="J12" s="4">
-        <v>2.2007359999117E13</v>
+        <v>22007359999117</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>26</v>
@@ -1586,36 +1630,36 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E13" s="4">
-        <v>1.9680101E7</v>
+        <v>19680101</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="4">
-        <v>2.02501011011E11</v>
+        <v>202501011011</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>26</v>
@@ -1648,42 +1692,42 @@
         <v>35</v>
       </c>
       <c r="U13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E14" s="4">
-        <v>1.9650101E7</v>
+        <v>19650101</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="4">
-        <v>2.02501011011E11</v>
+        <v>202501011011</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>26</v>
@@ -1716,13 +1760,14 @@
         <v>35</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>